--- a/src/test/java/org/jeecgframework/poi/test/excel/doc/for_Col.xlsx
+++ b/src/test/java/org/jeecgframework/poi/test/excel/doc/for_Col.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15516" windowHeight="5976"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.tjmk}}</t>
+    <t>t.tjmk}}}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,25 +137,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,47 +465,47 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
@@ -513,20 +513,20 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1"/>
@@ -534,7 +534,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -544,7 +544,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -554,7 +554,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -564,7 +564,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -574,7 +574,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -584,7 +584,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -594,7 +594,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -604,7 +604,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
